--- a/CaseAndFatalityDemographicsData/2022-02-04.xlsx
+++ b/CaseAndFatalityDemographicsData/2022-02-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3F870B-5655-4A6B-8122-E6320DF875A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A880A047-BCE8-4A44-A3B6-76D77B091AE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20460" yWindow="-2310" windowWidth="18750" windowHeight="19365" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24045" yWindow="-1155" windowWidth="21600" windowHeight="11385" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatalities by Age" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Confirmed Cases by RaceEth" sheetId="17" r:id="rId8"/>
     <sheet name="Probable Cases by RaceEth" sheetId="18" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643BF4CB-306D-47FD-BEB1-50FE6CB9B164}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -833,10 +833,10 @@
         <v>319</v>
       </c>
       <c r="K8">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L8">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
         <v>8166</v>
       </c>
       <c r="K15" s="5">
-        <v>10777</v>
+        <v>10778</v>
       </c>
       <c r="L15" s="5">
-        <v>31312</v>
+        <v>31313</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1137,10 +1137,10 @@
         <v>2805</v>
       </c>
       <c r="K17">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="L17">
-        <v>9942</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>40</v>
       </c>
       <c r="G20">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H20">
         <v>229</v>
@@ -1254,7 +1254,7 @@
         <v>257</v>
       </c>
       <c r="L20">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>186</v>
       </c>
       <c r="I23">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J23">
         <v>257</v>
@@ -1368,7 +1368,7 @@
         <v>232</v>
       </c>
       <c r="L23">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,19 +1394,19 @@
         <v>849</v>
       </c>
       <c r="H24">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="I24">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="J24">
         <v>1418</v>
       </c>
       <c r="K24">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="L24">
-        <v>6876</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F25">
         <v>504</v>
@@ -1432,19 +1432,19 @@
         <v>1039</v>
       </c>
       <c r="H25">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="I25">
         <v>2007</v>
       </c>
       <c r="J25">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="K25">
         <v>1371</v>
       </c>
       <c r="L25">
-        <v>8288</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1473,16 +1473,16 @@
         <v>750</v>
       </c>
       <c r="I26">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="J26">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="K26">
         <v>639</v>
       </c>
       <c r="L26">
-        <v>4084</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1505,22 +1505,22 @@
         <v>72</v>
       </c>
       <c r="G27">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H27">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I27">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J27">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K27">
         <v>320</v>
       </c>
       <c r="L27">
-        <v>1643</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1537,28 +1537,28 @@
         <v>3</v>
       </c>
       <c r="E28" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G28" s="7">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H28" s="7">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I28" s="7">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="J28" s="7">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="K28" s="7">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7">
-        <v>1834</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1575,28 +1575,28 @@
         <v>60</v>
       </c>
       <c r="E29" s="5">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F29" s="5">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="G29" s="5">
-        <v>3858</v>
+        <v>3865</v>
       </c>
       <c r="H29" s="5">
-        <v>6765</v>
+        <v>6773</v>
       </c>
       <c r="I29" s="5">
-        <v>10305</v>
+        <v>10318</v>
       </c>
       <c r="J29" s="5">
-        <v>10510</v>
+        <v>10522</v>
       </c>
       <c r="K29" s="5">
-        <v>10482</v>
+        <v>10494</v>
       </c>
       <c r="L29" s="5">
-        <v>44291</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1613,28 +1613,28 @@
         <v>85</v>
       </c>
       <c r="E31" s="10">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F31" s="10">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="G31" s="10">
-        <v>5433</v>
+        <v>5440</v>
       </c>
       <c r="H31" s="10">
-        <v>10281</v>
+        <v>10289</v>
       </c>
       <c r="I31" s="10">
-        <v>16871</v>
+        <v>16884</v>
       </c>
       <c r="J31" s="10">
-        <v>18676</v>
+        <v>18688</v>
       </c>
       <c r="K31" s="10">
-        <v>21259</v>
+        <v>21272</v>
       </c>
       <c r="L31" s="10">
-        <v>75603</v>
+        <v>75662</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1769,13 +1769,13 @@
         <v>506</v>
       </c>
       <c r="C8">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>13191</v>
       </c>
       <c r="C15" s="5">
-        <v>18120</v>
+        <v>18121</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -1902,7 +1902,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="C17">
         <v>5757</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9942</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1956,13 +1956,13 @@
         <v>552</v>
       </c>
       <c r="C20">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C23">
         <v>682</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,16 +2021,16 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="C24">
-        <v>4073</v>
+        <v>4075</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6876</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,16 +2038,16 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>3436</v>
+        <v>3438</v>
       </c>
       <c r="C25">
-        <v>4852</v>
+        <v>4855</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8288</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,16 +2055,16 @@
         <v>37</v>
       </c>
       <c r="B26">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="C26">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>4084</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2075,13 +2075,13 @@
         <v>685</v>
       </c>
       <c r="C27">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1643</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,16 +2089,16 @@
         <v>39</v>
       </c>
       <c r="B28" s="7">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="C28" s="7">
-        <v>1065</v>
+        <v>1089</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>1834</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2106,16 +2106,16 @@
         <v>64</v>
       </c>
       <c r="B29" s="5">
-        <v>18482</v>
+        <v>18502</v>
       </c>
       <c r="C29" s="5">
-        <v>25809</v>
+        <v>25847</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <v>44291</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2137,16 +2137,16 @@
         <v>65</v>
       </c>
       <c r="B31" s="10">
-        <v>31673</v>
+        <v>31693</v>
       </c>
       <c r="C31" s="10">
-        <v>43929</v>
+        <v>43968</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
       </c>
       <c r="E31" s="10">
-        <v>75603</v>
+        <v>75661</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2328,13 +2328,13 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2510,13 +2510,13 @@
         <v>171</v>
       </c>
       <c r="F15" s="5">
-        <v>11891</v>
+        <v>11892</v>
       </c>
       <c r="G15" s="5">
         <v>18</v>
       </c>
       <c r="H15" s="5">
-        <v>31312</v>
+        <v>31313</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2536,13 +2536,13 @@
         <v>48</v>
       </c>
       <c r="F17">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17">
-        <v>9942</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2683,7 +2683,7 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D23">
         <v>431</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2712,19 +2712,19 @@
         <v>813</v>
       </c>
       <c r="D24">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="E24">
         <v>44</v>
       </c>
       <c r="F24">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24">
-        <v>6876</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2732,25 +2732,25 @@
         <v>36</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D25">
-        <v>2976</v>
+        <v>2979</v>
       </c>
       <c r="E25">
         <v>60</v>
       </c>
       <c r="F25">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="G25">
         <v>8</v>
       </c>
       <c r="H25">
-        <v>8288</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,13 +2770,13 @@
         <v>31</v>
       </c>
       <c r="F26">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26">
-        <v>4084</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2787,22 +2787,22 @@
         <v>22</v>
       </c>
       <c r="C27">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D27">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E27">
         <v>14</v>
       </c>
       <c r="F27">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1643</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2813,22 +2813,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="7">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D28" s="7">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="E28" s="7">
         <v>21</v>
       </c>
       <c r="F28" s="7">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
       </c>
       <c r="H28" s="7">
-        <v>1834</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2836,25 +2836,25 @@
         <v>64</v>
       </c>
       <c r="B29" s="5">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C29" s="5">
-        <v>4840</v>
+        <v>4854</v>
       </c>
       <c r="D29" s="5">
-        <v>17381</v>
+        <v>17403</v>
       </c>
       <c r="E29" s="5">
         <v>292</v>
       </c>
       <c r="F29" s="5">
-        <v>20944</v>
+        <v>20964</v>
       </c>
       <c r="G29" s="5">
         <v>29</v>
       </c>
       <c r="H29" s="5">
-        <v>44291</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2885,25 +2885,25 @@
         <v>65</v>
       </c>
       <c r="B31" s="10">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="C31" s="10">
-        <v>8017</v>
+        <v>8031</v>
       </c>
       <c r="D31" s="10">
-        <v>32859</v>
+        <v>32881</v>
       </c>
       <c r="E31" s="10">
         <v>463</v>
       </c>
       <c r="F31" s="10">
-        <v>32835</v>
+        <v>32856</v>
       </c>
       <c r="G31" s="10">
         <v>47</v>
       </c>
       <c r="H31" s="10">
-        <v>75603</v>
+        <v>75662</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
